--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/Shared drives/R&amp;D/Automation/Cheq Automation Test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C697FEE-09E2-5F4A-8976-2960AD57F11E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6209FBE7-53A7-7E4E-87B7-4521A56D09AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6120" yWindow="500" windowWidth="68800" windowHeight="27160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -1402,8 +1402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="C85" sqref="A85:XFD85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3109,7 +3109,7 @@
         <v>25</v>
       </c>
       <c r="E85" t="s">
-        <v>63</v>
+        <v>342</v>
       </c>
       <c r="F85" t="s">
         <v>287</v>
